--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.208871315151269</v>
+        <v>0.265744</v>
       </c>
       <c r="N2">
-        <v>0.208871315151269</v>
+        <v>0.7972319999999999</v>
       </c>
       <c r="O2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="P2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="Q2">
-        <v>1.772320634601014</v>
+        <v>2.433407001077334</v>
       </c>
       <c r="R2">
-        <v>1.772320634601014</v>
+        <v>21.900663009696</v>
       </c>
       <c r="S2">
-        <v>0.09327522914774827</v>
+        <v>0.100326942692432</v>
       </c>
       <c r="T2">
-        <v>0.09327522914774827</v>
+        <v>0.1003269426924319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.270427202953201</v>
+        <v>0.307583</v>
       </c>
       <c r="N3">
-        <v>0.270427202953201</v>
+        <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="P3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="Q3">
-        <v>2.294636348721637</v>
+        <v>2.816525022624667</v>
       </c>
       <c r="R3">
-        <v>2.294636348721637</v>
+        <v>25.348725203622</v>
       </c>
       <c r="S3">
-        <v>0.1207641140430249</v>
+        <v>0.1161225164600755</v>
       </c>
       <c r="T3">
-        <v>0.1207641140430249</v>
+        <v>0.1161225164600755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68785595612011</v>
+        <v>1.994584333333333</v>
       </c>
       <c r="N4">
-        <v>1.68785595612011</v>
+        <v>5.983753</v>
       </c>
       <c r="O4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="P4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="Q4">
-        <v>14.32184183404717</v>
+        <v>18.26432762723712</v>
       </c>
       <c r="R4">
-        <v>14.32184183404717</v>
+        <v>164.378948645134</v>
       </c>
       <c r="S4">
-        <v>0.7537423267597907</v>
+        <v>0.7530200046117916</v>
       </c>
       <c r="T4">
-        <v>0.7537423267597907</v>
+        <v>0.7530200046117915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.208871315151269</v>
+        <v>0.265744</v>
       </c>
       <c r="N5">
-        <v>0.208871315151269</v>
+        <v>0.7972319999999999</v>
       </c>
       <c r="O5">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="P5">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="Q5">
-        <v>0.05900216229753389</v>
+        <v>0.07663286302399999</v>
       </c>
       <c r="R5">
-        <v>0.05900216229753389</v>
+        <v>0.689695767216</v>
       </c>
       <c r="S5">
-        <v>0.003105217025109029</v>
+        <v>0.003159496481090917</v>
       </c>
       <c r="T5">
-        <v>0.003105217025109029</v>
+        <v>0.003159496481090916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.270427202953201</v>
+        <v>0.307583</v>
       </c>
       <c r="N6">
-        <v>0.270427202953201</v>
+        <v>0.922749</v>
       </c>
       <c r="O6">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="P6">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="Q6">
-        <v>0.07639052641937637</v>
+        <v>0.08869801729299999</v>
       </c>
       <c r="R6">
-        <v>0.07639052641937637</v>
+        <v>0.798282155637</v>
       </c>
       <c r="S6">
-        <v>0.004020346949291436</v>
+        <v>0.003656930753444621</v>
       </c>
       <c r="T6">
-        <v>0.004020346949291436</v>
+        <v>0.003656930753444621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68785595612011</v>
+        <v>1.994584333333333</v>
       </c>
       <c r="N7">
-        <v>1.68785595612011</v>
+        <v>5.983753</v>
       </c>
       <c r="O7">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="P7">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="Q7">
-        <v>0.4767871116516639</v>
+        <v>0.5751802787876666</v>
       </c>
       <c r="R7">
-        <v>0.4767871116516639</v>
+        <v>5.176622509089</v>
       </c>
       <c r="S7">
-        <v>0.02509276607503566</v>
+        <v>0.02371410900116555</v>
       </c>
       <c r="T7">
-        <v>0.02509276607503566</v>
+        <v>0.02371410900116555</v>
       </c>
     </row>
   </sheetData>
